--- a/help/tutorial-inherited-instance/_assets/downloads/Adobe-Marketo-Engage_CRM-Sync-Error-Log-Template.xlsx
+++ b/help/tutorial-inherited-instance/_assets/downloads/Adobe-Marketo-Engage_CRM-Sync-Error-Log-Template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/achiu_adobe_com/Documents/ExL_ME_Microsite_Migration/Inherited Instance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe.sharepoint.com/sites/dx-customer-marketing-adoption-retention/Shared Documents/TEAM USE - Adoption Programs/Adobe Marketo Engage Programs/Experience League/Jumpstart Inherited Instance/Tutorial/Downloadable Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8EFD6D-F08D-4115-9AFE-21A363F3569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2547086-DB81-40A8-B014-7E8AB5EA3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55080" yWindow="10540" windowWidth="24440" windowHeight="14280" xr2:uid="{7842F47B-2165-F548-982B-C144E213BD35}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Error log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -81,29 +81,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="AdobeClean-Regular"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="AdobeClean-Regular"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color theme="0"/>
+      <name val="AdobeClean-Regular"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,11 +126,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,11 +450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150F1508-BA43-EB4B-A97D-B727F9440FB8}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="2" width="11" style="1"/>
     <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
@@ -457,21 +465,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="294" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -492,14 +505,44 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Conversations xmlns="beb3ccd9-9cf9-40a9-923c-79c44a00fd08">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Conversations>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <FeaturedContent xmlns="d449adc5-a023-4a4e-b2f3-92dafbd76c81">false</FeaturedContent>
+    <TaxCatchAll xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xsi:nil="true"/>
+    <ab617b3f63244b6db64cb123f660ff50 xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ab617b3f63244b6db64cb123f660ff50>
+    <TaxKeywordTaxHTField xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <SharedWithUsers xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
+      <UserInfo>
+        <DisplayName>Sandra Hausmann</DisplayName>
+        <AccountId>1686</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AB93A25AFF156439850881F6A1EFB06" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fce891f3c33b1875c37f97a11d6fd678">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xmlns:ns3="d449adc5-a023-4a4e-b2f3-92dafbd76c81" xmlns:ns4="beb3ccd9-9cf9-40a9-923c-79c44a00fd08" xmlns:ns5="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e048e84d6c6593fb1dec6f68ce9838d9" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
@@ -793,7 +836,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -802,43 +845,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Conversations xmlns="beb3ccd9-9cf9-40a9-923c-79c44a00fd08">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Conversations>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <FeaturedContent xmlns="d449adc5-a023-4a4e-b2f3-92dafbd76c81">false</FeaturedContent>
-    <TaxCatchAll xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc" xsi:nil="true"/>
-    <ab617b3f63244b6db64cb123f660ff50 xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ab617b3f63244b6db64cb123f660ff50>
-    <TaxKeywordTaxHTField xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <SharedWithUsers xmlns="42202dc8-22a4-46a3-a8c9-17b1c003c0dc">
-      <UserInfo>
-        <DisplayName>Sandra Hausmann</DisplayName>
-        <AccountId>1686</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE5E675-EB16-4631-BFDF-BAC8DD623B9F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495E0594-3E8C-43D4-A967-8E752DF5F1B9}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2032D79C-C46F-4B7F-981A-0564EB1E9890}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE5E675-EB16-4631-BFDF-BAC8DD623B9F}"/>
 </file>